--- a/SE2223_60157_60201_60226_60479_60749/Work Breakdown Structure.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Work Breakdown Structure.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>Project name:</t>
   </si>
@@ -382,6 +382,18 @@
   </si>
   <si>
     <t>Record Video</t>
+  </si>
+  <si>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>Create Second Mergedoc</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>Create Final Report</t>
   </si>
 </sst>
 </file>
@@ -1321,10 +1333,20 @@
       <c r="C65" s="14"/>
     </row>
     <row r="66">
-      <c r="A66" s="24"/>
+      <c r="A66" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="24"/>
+      <c r="A67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="24"/>
